--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H2">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I2">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J2">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N2">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q2">
-        <v>234.9864544099147</v>
+        <v>93.49432334923466</v>
       </c>
       <c r="R2">
-        <v>2114.878089689232</v>
+        <v>841.448910143112</v>
       </c>
       <c r="S2">
-        <v>0.03048267512440758</v>
+        <v>0.0183073320093926</v>
       </c>
       <c r="T2">
-        <v>0.03048267512440758</v>
+        <v>0.0183073320093926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H3">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I3">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J3">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q3">
-        <v>807.6947307005547</v>
+        <v>287.5430939844493</v>
       </c>
       <c r="R3">
-        <v>7269.252576304993</v>
+        <v>2587.887845860044</v>
       </c>
       <c r="S3">
-        <v>0.1047749587841863</v>
+        <v>0.05630445464499301</v>
       </c>
       <c r="T3">
-        <v>0.1047749587841863</v>
+        <v>0.05630445464499301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H4">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I4">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J4">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N4">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q4">
-        <v>598.165608360064</v>
+        <v>220.5895698420173</v>
       </c>
       <c r="R4">
-        <v>5383.490475240576</v>
+        <v>1985.306128578156</v>
       </c>
       <c r="S4">
-        <v>0.07759463393760677</v>
+        <v>0.04319413573187775</v>
       </c>
       <c r="T4">
-        <v>0.07759463393760677</v>
+        <v>0.04319413573187775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H5">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I5">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J5">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N5">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O5">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P5">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q5">
-        <v>1173.029803075168</v>
+        <v>362.9238529933099</v>
       </c>
       <c r="R5">
-        <v>10557.26822767651</v>
+        <v>3266.31467693979</v>
       </c>
       <c r="S5">
-        <v>0.152166585466296</v>
+        <v>0.07106492921562929</v>
       </c>
       <c r="T5">
-        <v>0.152166585466296</v>
+        <v>0.0710649292156293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>37.145801</v>
       </c>
       <c r="I6">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J6">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N6">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q6">
-        <v>128.6596120113492</v>
+        <v>143.7900914406538</v>
       </c>
       <c r="R6">
-        <v>1157.936508102143</v>
+        <v>1294.110822965884</v>
       </c>
       <c r="S6">
-        <v>0.01668985203603638</v>
+        <v>0.02815585855230984</v>
       </c>
       <c r="T6">
-        <v>0.01668985203603638</v>
+        <v>0.02815585855230984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>37.145801</v>
       </c>
       <c r="I7">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J7">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q7">
         <v>442.2284294492509</v>
@@ -883,10 +883,10 @@
         <v>3980.055865043258</v>
       </c>
       <c r="S7">
-        <v>0.05736630896248693</v>
+        <v>0.08659373523329492</v>
       </c>
       <c r="T7">
-        <v>0.05736630896248692</v>
+        <v>0.08659373523329492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>37.145801</v>
       </c>
       <c r="I8">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J8">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N8">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q8">
-        <v>327.5071973122693</v>
+        <v>339.2569011912936</v>
       </c>
       <c r="R8">
-        <v>2947.564775810424</v>
+        <v>3053.312110721642</v>
       </c>
       <c r="S8">
-        <v>0.04248455734031423</v>
+        <v>0.0664306505902698</v>
       </c>
       <c r="T8">
-        <v>0.04248455734031424</v>
+        <v>0.0664306505902698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>37.145801</v>
       </c>
       <c r="I9">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J9">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N9">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O9">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P9">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q9">
-        <v>642.2564216324153</v>
+        <v>558.1606683538783</v>
       </c>
       <c r="R9">
-        <v>5780.307794691737</v>
+        <v>5023.446015184905</v>
       </c>
       <c r="S9">
-        <v>0.08331413781423232</v>
+        <v>0.1092946855390293</v>
       </c>
       <c r="T9">
-        <v>0.08331413781423233</v>
+        <v>0.1092946855390293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H10">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I10">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J10">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N10">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q10">
-        <v>74.14240534269101</v>
+        <v>95.57609729876002</v>
       </c>
       <c r="R10">
-        <v>667.281648084219</v>
+        <v>860.1848756888402</v>
       </c>
       <c r="S10">
-        <v>0.00961782610269485</v>
+        <v>0.01871496881018642</v>
       </c>
       <c r="T10">
-        <v>0.009617826102694849</v>
+        <v>0.01871496881018642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H11">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I11">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J11">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q11">
-        <v>254.842051500946</v>
+        <v>293.9456187686201</v>
       </c>
       <c r="R11">
-        <v>2293.578463508514</v>
+        <v>2645.510568917581</v>
       </c>
       <c r="S11">
-        <v>0.03305836280413754</v>
+        <v>0.05755814730486013</v>
       </c>
       <c r="T11">
-        <v>0.03305836280413753</v>
+        <v>0.05755814730486013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H12">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I12">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J12">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N12">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q12">
-        <v>188.731887156888</v>
+        <v>225.50128644238</v>
       </c>
       <c r="R12">
-        <v>1698.586984411992</v>
+        <v>2029.51157798142</v>
       </c>
       <c r="S12">
-        <v>0.02448248694277517</v>
+        <v>0.04415590991578194</v>
       </c>
       <c r="T12">
-        <v>0.02448248694277517</v>
+        <v>0.04415590991578194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H13">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I13">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J13">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N13">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O13">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P13">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q13">
-        <v>370.111763918706</v>
+        <v>371.00482941795</v>
       </c>
       <c r="R13">
-        <v>3331.005875268354</v>
+        <v>3339.043464761551</v>
       </c>
       <c r="S13">
-        <v>0.04801126383044543</v>
+        <v>0.0726472832352776</v>
       </c>
       <c r="T13">
-        <v>0.04801126383044543</v>
+        <v>0.0726472832352776</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H14">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I14">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J14">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N14">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q14">
-        <v>205.9767811194084</v>
+        <v>162.1567050005436</v>
       </c>
       <c r="R14">
-        <v>1853.791030074676</v>
+        <v>1459.410345004892</v>
       </c>
       <c r="S14">
-        <v>0.0267195116322808</v>
+        <v>0.03175226612320721</v>
       </c>
       <c r="T14">
-        <v>0.0267195116322808</v>
+        <v>0.03175226612320721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H15">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I15">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J15">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q15">
-        <v>707.9827693667618</v>
+        <v>498.7152053286838</v>
       </c>
       <c r="R15">
-        <v>6371.844924300856</v>
+        <v>4488.436847958154</v>
       </c>
       <c r="S15">
-        <v>0.09184022460562226</v>
+        <v>0.09765453682123852</v>
       </c>
       <c r="T15">
-        <v>0.09184022460562226</v>
+        <v>0.09765453682123852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H16">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I16">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J16">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N16">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q16">
-        <v>524.3205481598186</v>
+        <v>382.5909052195051</v>
       </c>
       <c r="R16">
-        <v>4718.884933438368</v>
+        <v>3443.318146975546</v>
       </c>
       <c r="S16">
-        <v>0.06801537974068303</v>
+        <v>0.07491597858261705</v>
       </c>
       <c r="T16">
-        <v>0.06801537974068304</v>
+        <v>0.07491597858261705</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H17">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I17">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J17">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N17">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O17">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P17">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q17">
-        <v>1028.21630123869</v>
+        <v>629.4557151632516</v>
       </c>
       <c r="R17">
-        <v>9253.946711148215</v>
+        <v>5665.101436469265</v>
       </c>
       <c r="S17">
-        <v>0.1333812348757945</v>
+        <v>0.1232551276900347</v>
       </c>
       <c r="T17">
-        <v>0.1333812348757945</v>
+        <v>0.1232551276900347</v>
       </c>
     </row>
   </sheetData>
